--- a/类或关键字解释.xlsx
+++ b/类或关键字解释.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t xml:space="preserve">名称 </t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>LinkedBlockingDeque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaphore </t>
+  </si>
+  <si>
+    <t>加强版synchronized</t>
+  </si>
+  <si>
+    <t>acquire接受和release释放</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1059,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1334,7 +1343,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1608,9 +1617,15 @@
       </c>
     </row>
     <row r="26" ht="22.5" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" ht="22.5" spans="1:3">
       <c r="A27" s="5"/>
